--- a/medicine/Enfance/Meg_Cabot/Meg_Cabot.xlsx
+++ b/medicine/Enfance/Meg_Cabot/Meg_Cabot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Meg Cabot, de son vrai nom Meggin Patricia Cabot, née à Bloomington le 1er février 1967, est une écrivaine américaine, auteur de romans pour adolescents et pour adultes. Elle est notamment connue pour avoir écrit la série Journal d'une princesse publiée en français à partir  de 2000, qui rencontre un succès dans de nombreux pays. Sous le pseudonyme de Patricia Cabot, elle a écrit plusieurs romances historiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Meg Cabot est née en 1967 à Bloomington, dans l'Indiana (États-Unis) où elle a grandi et fait ses études, avant de partir pour New York. Après avoir exercé différents métiers, notamment celui de directrice adjointe d’une cité universitaire de New York, elle finit par se consacrer pleinement à sa passion, l’écriture de romans. Son premier roman est une romance historique, intitulée Where Roses Grow Wild, publiée sous le pseudonyme de Patricia Cabot en 1998 (non traduite en français). Par la suite, elle utilise ce pseudonyme pour signer d’autres romances tels que L'étoile de Jaïpur (publié aux USA en 1999 et en France en 2005 dans la collection Aventures et Passions). Elle a également écrit des romans sous le nom de plume de Jenny Carroll. Meg Cabot est l’auteur d’une quarantaine de romans pour adolescents et adultes, dont beaucoup sont devenus best-sellers, traduits dans 37 pays et vendus à plus de cinq millions d’exemplaires. Elle a notamment connu un immense succès international avec sa série : Journal d'une princesse.
 Meg Cabot partage désormais son temps entre New York et Key West, où elle vit avec son mari, qu’elle a épousé en 1993.
